--- a/plan/cronograma/cronograma.xlsx
+++ b/plan/cronograma/cronograma.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+  <si>
+    <t>CRONOGRAMA DISSERTAÇÃO</t>
+  </si>
   <si>
     <t>#</t>
   </si>
@@ -29,58 +32,49 @@
     <t>Término (MM/AAAA)</t>
   </si>
   <si>
-    <t>Revisão da Literatura</t>
-  </si>
-  <si>
-    <t>10/2015</t>
-  </si>
-  <si>
-    <t>11/2015</t>
-  </si>
-  <si>
-    <t>Ponto de Controle 01 – Reunião com orientador sobre Revisão da Literatura</t>
+    <t>Revisão Sistemática da Literatura</t>
   </si>
   <si>
     <t>12/2016</t>
   </si>
   <si>
-    <t>Avaliação da Técnica de Rede Neural</t>
-  </si>
-  <si>
-    <t>01/2016</t>
-  </si>
-  <si>
-    <t>Ponto de Controle 02 – Reunião com orientador sobre a Técnica de Rede Neural</t>
-  </si>
-  <si>
     <t>02/2016</t>
   </si>
   <si>
+    <t>Ponto de Controle 01 – Reunião com orientador sobre Revisão Sistemática da Literatura</t>
+  </si>
+  <si>
+    <t>Pesquisa com Profissionais</t>
+  </si>
+  <si>
+    <t>04/2016</t>
+  </si>
+  <si>
+    <t>Ponto de Controle 02 – Reunião com orientador sobre a Pesquisa com o Profissionais</t>
+  </si>
+  <si>
     <t>Implementação da Ferramenta</t>
   </si>
   <si>
-    <t>04/2016</t>
+    <t>06/2016</t>
   </si>
   <si>
     <t>Ponto de Controle 03 – Avaliação da Ferramenta Avaliada</t>
   </si>
   <si>
-    <t>05/2016</t>
-  </si>
-  <si>
     <t>Experimento de Avaliação da Ferramenta</t>
   </si>
   <si>
+    <t>07/2016</t>
+  </si>
+  <si>
     <t>Ponto de Controle 04 – Avaliação do Experimento junto com o orientador</t>
   </si>
   <si>
     <t>Finalização do texto da dissertação</t>
   </si>
   <si>
-    <t>06/2016</t>
-  </si>
-  <si>
-    <t>07/2016</t>
+    <t>08/2016</t>
   </si>
   <si>
     <t>Ponto de Controle 05 – Avaliação do texto da dissertação com o orientador</t>
@@ -97,11 +91,12 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -120,9 +115,23 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -148,6 +157,13 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -174,25 +190,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -210,193 +230,204 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="72.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.55612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.2908163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7908163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.8775510204082"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
